--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/WEST_VIRGINIA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/WEST_VIRGINIA_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mazatan</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Zacualtipan De Angeles</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolas Romero</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tlazazalca</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Pablo Yaganiza</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Santa Maria Colotepec</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Santa Maria Zacatepec</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santiago Textitlan</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Juan Del Rio</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1580,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1606,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -1619,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tamalin</t>
@@ -1632,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tihuatlan</t>
@@ -1645,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tlalnelhuayocan</t>
@@ -1658,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1702,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
